--- a/src/asset/files/example.xlsx
+++ b/src/asset/files/example.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowHeight="15820"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
     <t>系统SKU</t>
   </si>
@@ -34,29 +37,190 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF202223"/>
       <name val="-apple-system"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -64,37 +228,531 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -284,25 +942,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.14"/>
-    <col customWidth="1" min="2" max="2" width="21.43"/>
-    <col customWidth="1" min="3" max="3" width="15.43"/>
+    <col min="1" max="1" width="19.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="21.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="15.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="12" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -316,21 +978,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="16.8" spans="1:4">
       <c r="A2" s="2">
-        <v>6.902176905315E12</v>
+        <v>6902176905315</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>600.0</v>
+        <v>600</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/asset/files/example.xlsx
+++ b/src/asset/files/example.xlsx
@@ -38,12 +38,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -66,15 +67,82 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,121 +164,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,13 +232,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,109 +268,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,55 +412,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,6 +441,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -454,17 +494,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,214 +530,173 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -961,41 +966,41 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21.7777777777778" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="15.4259259259259" customWidth="1"/>
+    <col min="3" max="3" width="15.4259259259259" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4">
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="6">
         <v>6902176905315</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>600</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
